--- a/dotest/DD_API_REPORT.xlsx
+++ b/dotest/DD_API_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -62,13 +62,13 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>2017-05-10 17:12</t>
+    <t>2017-05-11 11:30</t>
   </si>
   <si>
     <t>通过率</t>
   </si>
   <si>
-    <t>50.0%</t>
+    <t>0.0%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -101,22 +101,16 @@
     <t>设置量表</t>
   </si>
   <si>
-    <t>eyJhbGciOiJSUzI1NiIsImtpZCI6IjZCN0FDQzUyMDMwNUJGREI0RjcyNTJEQUVCMjE3N0NDMDkxRkFBRTEiLCJ0eXAiOiJKV1QiLCJ4NXQiOiJhM3JNVWdNRnY5dFBjbExhNnlGM3pBa2ZxdUUifQ.eyJuYmYiOjE0OTQ0MDc1MjgsImV4cCI6MTQ5NTcwMzUyOCwiaXNzIjoiaHR0cDovL29hdXRoLnRlc3QuZGlkaXhsLmNvbSIsImF1ZCI6Imh0dHA6Ly9vYXV0aC50ZXN0LmRpZGl4bC5jb20vcmVzb3VyY2VzIiwiY2xpZW50X2lkIjoiMmEyZDg1NTgxZjI1Iiwic3ViIjoiNTQiLCJhdXRoX3RpbWUiOjE0OTQ0MDc1MjcsImlkcCI6ImxvY2FsIiwiQXNwTmV0LklkZW50aXR5LlNlY3VyaXR5U3RhbXAiOiI4OTc2OTdlNy0xODE0LTQwZWEtODYzNC01ZGNmMDAwNjFhOTYiLCJwaWN0dXJlIjoiaHR0cDovL2ltZ2FwaS5kaWRpeGwuY29tL2ltYWdlLzIwMTYwOC8yMDE2MDgwMzE1MjM1NzM5ODg2My0wQGw9MSIsImJpcnRoZGF0ZSI6IjE5OTUtMTEtMTEgMDA6MDA6MDAiLCJnZW5kZXIiOiIyIiwibmlja25hbWUiOiIgIOWuoiDln7rnnaPmlZkiLCJwaG9uZV9udW1iZXIiOiIxMzA2NzgxNjE2OSIsIm5hbWUiOiIxMzA2NzgxNjE2OSIsInByZWZlcnJlZF91c2VybmFtZSI6IjEzMDY3ODE2MTY5IiwicGhvbmVfbnVtYmVyX3ZlcmlmaWVkIjpmYWxzZSwic2NvcGUiOlsiY2x1YiIsImNvbnN1bHRhbnQiLCJkb2N0b3IiLCJmaW5hbmNlIiwiaW0iLCJvZmZsaW5lX2FjY2VzcyIsIm9yZGVyIiwicGF5bWVudCIsInJ1bGVyIiwid3giXSwiYW1yIjpbInB3ZCJdfQ.M7bMlGFoEkIISvGnZB0c9XoF74v0cQS6dd2Le4w5754G1hdjKnhFzXa7NcHgj8IMexbqKNKlnFuMbI9zMm7kcvkzhmrg-jjfuKt4TRfskLv2Pq0Am3Vxe1rg4zZCecUAAGiWcHqxO2z38Zr8xj4pP6Q9RLqJb5k50-5aILiAy7DrsptV9s6dOL2fUrFrSTrg_L8-lcdcZ1BiYY5cRBWi2_v2EreG1EiY4kLAPk9r9SJNCQ25pANl_nQa-egU5Ee_bqnKqb1tV3_DQ-CfH7o-Ln2Jr3e2fgeFF8_9o-vK2ziwWD8WxqcguLifvxzjlffyuFLaLr--tkjkANitMGLAsA</t>
-  </si>
-  <si>
     <t>http://consultant.test.didixl.com/api/Assessment</t>
   </si>
   <si>
-    <t>[{'UserId': 187, 'AssessmentUrl': 'www.量表Url.com', 'AssessmentName': '量表名称', 'AssessmentKind': 2, 'Mode': 1, 'AssessmentId': 2}]</t>
-  </si>
-  <si>
-    <t>{'checktype': 'code', 'checkdata': None}</t>
-  </si>
-  <si>
-    <t>{"Data":true,"Code":0,"Message":null}</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>[{'AssessmentKind': 2, 'AssessmentId': 2, 'Mode': 1, 'AssessmentUrl': 'www.量表Url.com', 'AssessmentName': '量表名称', 'UserId': 187}]</t>
+  </si>
+  <si>
+    <t>{'checkdata': None, 'checktype': 'code'}</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
   <si>
     <t>获取患者当天的量表提醒</t>
@@ -126,9 +120,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>获取患者量表ID</t>
@@ -332,10 +323,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -772,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -868,47 +859,42 @@
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -917,23 +903,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -942,51 +926,46 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -995,26 +974,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="3">
@@ -1023,47 +999,42 @@
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -1072,23 +1043,21 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1097,51 +1066,46 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -1150,36 +1114,39 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>

--- a/dotest/DD_API_REPORT.xlsx
+++ b/dotest/DD_API_REPORT.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="23895" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试总况" sheetId="1" r:id="rId1"/>
     <sheet name="测试详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -29,75 +29,351 @@
     <t>项目名称</t>
   </si>
   <si>
+    <t>的的心理</t>
+  </si>
+  <si>
+    <t>接口总数</t>
+  </si>
+  <si>
+    <t>通过率</t>
+  </si>
+  <si>
     <t>接口版本</t>
   </si>
   <si>
+    <t>v2.0.8</t>
+  </si>
+  <si>
+    <t>通过总数</t>
+  </si>
+  <si>
+    <t>100.%</t>
+  </si>
+  <si>
     <t>脚本语言</t>
   </si>
   <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>失败总数</t>
+  </si>
+  <si>
     <t>测试网络</t>
   </si>
   <si>
-    <t>的的心理</t>
-  </si>
-  <si>
-    <t>v2.0.8</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
     <t>wifi</t>
   </si>
   <si>
-    <t>接口总数</t>
-  </si>
-  <si>
-    <t>通过总数</t>
-  </si>
-  <si>
-    <t>失败总数</t>
-  </si>
-  <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>2017-05-25 21:57</t>
-  </si>
-  <si>
-    <t>通过率</t>
+    <t>2017-06-01 13:46</t>
+  </si>
+  <si>
+    <t>测试详情</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>预期值</t>
+  </si>
+  <si>
+    <t>实际值</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>http://test.jishulink.com:8080/jishulink_test/management/ad/group?labels=report</t>
+  </si>
+  <si>
+    <t>{'path': 'management/ad/group?labels=report', 'body': {}}</t>
+  </si>
+  <si>
+    <t>{'checkdata': None, 'checktype': 'code'}</t>
+  </si>
+  <si>
+    <t>{"rc":0,"ret":{"report":[{"id":71,"name":"问答广告测试","label":"report","img":"http://img.jishulink.com/201703/imgs/51e3ed76dab04080904eafac1cdab15e.png","linkUrl":"http://img.jishulink.com/201703/imgs/c36f6baf05c24f3bbd9493d6afc947dc.jpg","webUrl":"http://www.jishulink.com/answer","valid":1,"ranking":1,"description":"问答广告测试"}]}}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>获取答疑明星</t>
+  </si>
+  <si>
+    <t>http://test.jishulink.com:8080/jishulink_test/user/top_activity_users</t>
+  </si>
+  <si>
+    <t>{'path': 'user/top_activity_users', 'body': {}}</t>
+  </si>
+  <si>
+    <t>{"rc":0,"ret":{"total":1643,"results":[{"autoId":402981,"userId":"168702a4-b185-44f8-b414-3dafa5329bd1","name":"ANSYS专家","avatar":"http://img.jishulink.com/201606/avatar/1b3aa1749b9b4d65afbaa8dc44122b66.jpg","replyQaCount":250,"fansCount":1468,"expertScore":0,"activityScore":0,"rankingScore":1468.0,"online":false},{"autoId":404555,"userId":"abc82ac2-65ff-4b4c-acee-f1030404fbb9","name":"告白气球","avatar":"http://img.jishulink.com/201607/avatar/6f9a1eaef5b04c7c8a9d01f9b7cd718d.jpg","replyQaCount":49,"fansCount":1338,"expertScore":0,"activityScore":0,"rankingScore":1338.0,"online":false},{"autoId":408049,"userId":"a47c8d4b-83e9-497d-af07-9cfbd87f7f92","name":"技术工","avatar":"http://img.jishulink.com/201608/avatar/81c19719eb794047b632f5dccfc5ede2.jpg","replyQaCount":858,"fansCount":1267,"expertScore":0,"activityScore":0,"rankingScore":1267.0,"online":false},{"autoId":403456,"userId":"5e4ca457-ec72-4a85-9e9c-236fd75deed3","name":"海阔天空5","avatar":"http://img.jishulink.com/201608/avatar/30ec6d8e0bd84b7ab73fb4b51f565507.jpg","replyQaCount":172,"fansCount":1253,"expertScore":0,"activityScore":0,"rankingScore":1253.0,"online":false},{"autoId":409403,"userId":"080bd053-d5fe-46d6-bf20-dd4f3af31cfa","name":"技术邻Athena","avatar":"http://img.jishulink.com/201701/avatar/6b95fee9503e456392ff2798c72e0125.png","replyQaCount":10,"fansCount":743,"expertScore":0,"activityScore":2,"rankingScore":1081.595769036268,"online":false},{"autoId":400914,"userId":"0081d25b-534a-44bc-8594-ed66802f6a7c","name":"蓝牙","avatar":"http://img.jishulink.com/201607/avatar/6c29697444ec4d9f8c51ed5cd650aceb.jpg","replyQaCount":389,"fansCount":1078,"expertScore":0,"activityScore":0,"rankingScore":1078.0,"online":false},{"autoId":1378,"userId":"158b033a-b642-46bc-9ed1-d68f4c4695d3","name":"王毅","avatar":"http://img.jishulink.com/201512/avatar/8ba1dd3cfa5d4fbea87b992132aa9385.jpg","replyQaCount":921,"fansCount":1049,"expertScore":0,"activityScore":0,"rankingScore":1049.0,"online":false},{"autoId":365294,"userId":"ad5b5359-364f-4149-81a5-f2c96ff1b13a","name":"土木工程师千总","avatar":"http://img.jishulink.com/201603/avatar/1c94b2b2962a478193ca835afc18fee1.jpg","replyQaCount":23,"fansCount":970,"expertScore":0,"activityScore":0,"rankingScore":970.0,"online":false},{"autoId":403424,"userId":"83afc6f9-16d7-4e52-873b-b484f3e0c993","name":"steve_zheng","avatar":"http://img.jishulink.com/201605/avatar/c6541890ee40461b8c55632c9443d043.jpg","replyQaCount":137,"fansCount":889,"expertScore":0,"activityScore":0,"rankingScore":889.0,"online":false},{"autoId":402845,"userId":"f0390054-9e52-48e2-8d12-a387cc840444","name":"智创仿真","avatar":"http://img.jishulink.com/201604/avatar/591e35b6a3154a68a130c8794f008e28.gif","replyQaCount":237,"fansCount":774,"expertScore":0,"activityScore":0,"rankingScore":774.0,"online":false}]}}</t>
+  </si>
+  <si>
+    <t>获取未解决提问</t>
+  </si>
+  <si>
+    <t>http://test.jishulink.com:8080/jishulink_test/postCommon/college/search?express=QA&amp;resolved=false</t>
+  </si>
+  <si>
+    <t>{'path': 'postCommon/college/search?express=QA&amp;resolved=false', 'body': {}}</t>
+  </si>
+  <si>
+    <t>{"rc":0,"ret":{"numFound":50246,"start":0,"length":10,"responses":[{"autoId":341291,"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","tPoints":[{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2201,"tPointId":"0750E607-8A84-47F1-AA0E-1C7F49EADA32","name":"显式动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":1860,"tPointId":"3605432A-B559-49EA-A17A-1F42FEC798E2","name":"汽车工程","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2079,"tPointId":"8C274835-C596-470C-9C23-64A93736B911","name":"MSC.NASTRAN/PATRAN","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":3456,"tPointId":"9C15D173-227D-4805-B111-1F06988D1A7A","name":"航空航天","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2105,"tPointId":"BDB48F0D-44D7-4DAF-8B3B-CD85D5D2A21B","name":"机械电子","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2172,"tPointId":"F61B0CFC-706B-437C-A0C5-57548229BC19","name":"NVH","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"这个地方韩国锦湖？","briefBody":"阿萨德","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":20,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341290,"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","tPoints":[{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2201,"tPointId":"0750E607-8A84-47F1-AA0E-1C7F49EADA32","name":"显式动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":1860,"tPointId":"3605432A-B559-49EA-A17A-1F42FEC798E2","name":"汽车工程","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2079,"tPointId":"8C274835-C596-470C-9C23-64A93736B911","name":"MSC.NASTRAN/PATRAN","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":4661,"tPointId":"99F65655-CE5D-41C9-94AC-244200FA0E8E","name":"国防军工","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":3456,"tPointId":"9C15D173-227D-4805-B111-1F06988D1A7A","name":"航空航天","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2105,"tPointId":"BDB48F0D-44D7-4DAF-8B3B-CD85D5D2A21B","name":"机械电子","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"}],"replyCount":2,"subject":"321321321231321231321？","briefBody":"啊实打实的阿萨德爱迪生","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":341293,"replyId":"8b9ae110-f050-414d-a2e4-9552244d29fa","briefBody":"@测试姜飞龙 ","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":122,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341287,"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","tPoints":[{"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfsaesesdfe?","briefBody":"afseads","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341286,"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","tPoints":[{"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":1,"subject":"闻风丧胆大发啊等等？","briefBody":"啊啊啊","createdOn":"5月31日","lastReplyOn":"2 小时前","latestReply":{"autoId":341294,"replyId":"3e345239-aad4-4ecc-9e7c-cf1383a8c6b5","briefBody":"你猜我是谁啊。 我是来拿金币的","author":{"autoId":417984,"userId":"e17e7efa-7a38-490c-8a20-2a988f1df547","name":"啊盛"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341285,"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","tPoints":[{"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","autoId":1899,"tPointId":"0733A950-053D-4FC1-B305-EF379AA04FF6","name":"冲压工艺及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","autoId":901,"tPointId":"6D3C8F70-41B8-431C-A26B-33C2A441477B","name":"工艺成型及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","autoId":1889,"tPointId":"81990A81-AEBA-47B0-90D5-A48DAA276B6B","name":"DYNAFORM","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfsdaes?","briefBody":"afdas","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341284,"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","tPoints":[{"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"sfeeeeeeeeeeeeeeeeeeeeeeeeee?","briefBody":"dfs","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341283,"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","tPoints":[{"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfaaaaaaaaafse?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341282,"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","tPoints":[{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"assfseaaaaaaaaaaadfsea?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341281,"postId":"72b5f357-f365-4671-bcdb-95be76c65483","tPoints":[{"postId":"72b5f357-f365-4671-bcdb-95be76c65483","autoId":3198,"tPointId":"026115C5-2B90-4EFA-97A6-5EFF57BB1972","name":"其它","followed":false}],"replyCount":0,"subject":"11111111111111111111111111111111111111111111?","briefBody":"11111","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341268,"postId":"357d0c96-3ad6-4615-92f7-385f2b8c3716","tPoints":[{"postId":"357d0c96-3ad6-4615-92f7-385f2b8c3716","autoId":3198,"tPointId":"026115C5-2B90-4EFA-97A6-5EFF57BB1972","name":"其它","followed":false}],"replyCount":1,"subject":"测试1495176927027?","briefBody":"测试测试测试","createdOn":"5月19日","lastReplyOn":"5月22日","latestReply":{"autoId":341275,"replyId":"e789bf92-2de6-489e-b046-2146a35fd3eb","briefBody":"1","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"ON_REWARD","costRewardCoins":0}]}}</t>
+  </si>
+  <si>
+    <t>获取已解决提问</t>
+  </si>
+  <si>
+    <t>http://test.jishulink.com:8080/jishulink_test/qa/7515dec3-3668-4020-9777-9d5524bf89b9/followed_qa</t>
+  </si>
+  <si>
+    <t>{'path': 'qa/7515dec3-3668-4020-9777-9d5524bf89b9/followed_qa', 'body': {}}</t>
+  </si>
+  <si>
+    <t>{"rc":0,"ret":{"total":108,"results":[{"autoId":341290,"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","replyCount":2,"subject":"321321321231321231321？","briefBody":"啊实打实的阿萨德爱迪生","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":341293,"replyId":"8b9ae110-f050-414d-a2e4-9552244d29fa","briefBody":"@测试姜飞龙 ","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":122,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":338208,"postId":"0e289058-4174-4683-ae80-36b7c2b933de","replyCount":0,"subject":"编辑悬赏问答？","briefBody":"啊实打实打算","createdOn":"5月18日","lastReplyOn":"5月18日","latestReply":{"autoId":0},"rewardCoins":23,"rewardStatus":"REWARD_CLOSED","costRewardCoins":0},{"autoId":311785,"postId":"a37c307a-3d39-42ec-8a6c-85c1aa2af798","replyCount":10,"subject":"测试1494935117999?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311795,"replyId":"00dd19c7-fad2-4f48-aa12-b9b91c6bf70b","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311774,"postId":"be84f7a6-2fbb-4ce7-bd94-3247383d3bc0","replyCount":10,"subject":"测试1494935023223?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311784,"replyId":"97307bbe-0c70-45f3-b145-450f08eaa98f","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311752,"postId":"b0c78b8a-f9da-47c2-bd7a-5955c0f16b20","replyCount":10,"subject":"测试1494934361552?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311762,"replyId":"0435cf4d-1f55-4a31-910f-8d8c9df5a4c1","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311741,"postId":"5123d6ac-fc72-461d-84ca-7268a107287a","replyCount":10,"subject":"测试1494934027153?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311751,"replyId":"f611db80-11b5-4e48-a60b-5110469035c9","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311730,"postId":"481b3ad3-1f60-4aa5-902b-60bceb6eb4e9","replyCount":10,"subject":"测试1494933294427?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311740,"replyId":"aa372ded-f2da-4137-a02c-fe4aed602d0f","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311719,"postId":"505506b5-3eda-45fd-b01a-abf59440d932","replyCount":10,"subject":"测试1494933172092?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311729,"replyId":"6ce6a1dd-0040-4e9a-8098-8059fe65aeec","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311675,"postId":"1bc0c08e-cff6-4726-9c93-a6fde3544182","replyCount":10,"subject":"测试1494931604063?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311685,"replyId":"70a6c482-3d26-47f9-92db-b813412fefea","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311664,"postId":"67c8e9ef-3d1b-4f93-847c-6ecc1bc5d39d","replyCount":10,"subject":"测试1494931506519?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311674,"replyId":"8a29ccc0-f29a-4af0-8730-232fb6096de3","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"ON_REWARD","costRewardCoins":0}]}}</t>
+  </si>
+  <si>
+    <t>获取关注的提问</t>
+  </si>
+  <si>
+    <t>获取关注的板块</t>
+  </si>
+  <si>
+    <t>http://test.jishulink.com:8080/jishulink_test/tpoint/followed/7515dec3-3668-4020-9777-9d5524bf89b9/qa</t>
+  </si>
+  <si>
+    <t>{'path': 'tpoint/followed/7515dec3-3668-4020-9777-9d5524bf89b9/qa', 'body': {}}</t>
+  </si>
+  <si>
+    <t>{"rc":0,"ret":[{"autoId":341287,"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","tPoints":[{"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfsaesesdfe?","briefBody":"afseads","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341286,"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","tPoints":[{"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":1,"subject":"闻风丧胆大发啊等等？","briefBody":"啊啊啊","createdOn":"5月31日","lastReplyOn":"2 小时前","latestReply":{"autoId":341294,"replyId":"3e345239-aad4-4ecc-9e7c-cf1383a8c6b5","briefBody":"你猜我是谁啊。 我是来拿金币的","author":{"autoId":417984,"userId":"e17e7efa-7a38-490c-8a20-2a988f1df547","name":"啊盛"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341284,"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","tPoints":[{"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"sfeeeeeeeeeeeeeeeeeeeeeeeeee?","briefBody":"dfs","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341283,"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","tPoints":[{"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfaaaaaaaaafse?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341282,"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","tPoints":[{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"assfseaaaaaaaaaaadfsea?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":311482,"postId":"d1a54342-f2e2-4f5b-9709-23170c6e9b8b","tPoints":[{"postId":"d1a54342-f2e2-4f5b-9709-23170c6e9b8b","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":14,"subject":"wafeaafeafe?","briefBody":"afea","createdOn":"5月15日","lastReplyOn":"5月15日","latestReply":{"autoId":311496,"replyId":"7ae120d7-87ed-4bd6-9204-601ac46ed743","briefBody":"6","author":{"autoId":1627,"userId":"f1ab56bb-b976-4cab-8cdd-25ffb38935c6","name":"moneytalks"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":22},{"autoId":311270,"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","tPoints":[{"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":true,"aggregationType":"CONTENT"}],"replyCount":59,"subject":"再来一个吧一个吧一个吧及地方接？","briefBody":"项目了没了没","createdOn":"5月8日","lastReplyOn":"5月8日","latestReply":{"autoId":311336,"replyId":"69f248b1-694c-4bbe-a2b1-7ee1bebbb60a","briefBody":"1","author":{"autoId":418872,"userId":"934519e0-d088-462b-b632-fdc59d2dc81b","name":"蒲公英aaaa"}},"rewardCoins":200,"rewardStatus":"ON_REWARD","costRewardCoins":110},{"autoId":311235,"postId":"716c10e2-1ebf-425d-b1d8-b7e70d09a579","tPoints":[{"postId":"716c10e2-1ebf-425d-b1d8-b7e70d09a579","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":34,"subject":"wfefaefwfaaaaaaaaaaafefa?","briefBody":"afesfaa","createdOn":"5月5日","lastReplyOn":"5月5日","latestReply":{"autoId":311269,"replyId":"3e886d87-0147-4d58-9047-dc14b1719bdb","briefBody":"wfe","author":{"autoId":418872,"userId":"934519e0-d088-462b-b632-fdc59d2dc81b","name":"蒲公英aaaa"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":75},{"autoId":311201,"postId":"d4301154-ac64-46ac-bf04-9f6ccd83cc8a","tPoints":[{"postId":"d4301154-ac64-46ac-bf04-9f6ccd83cc8a","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":29,"subject":"fffffffffffffffffffffffff?","briefBody":"sfsea","createdOn":"5月5日","lastReplyOn":"5月5日","latestReply":{"autoId":311234,"replyId":"db5f8f0c-f684-4a37-b338-d80fa8a99421","briefBody":"dfhdrhsedrhsdrh","author":{"autoId":1627,"userId":"f1ab56bb-b976-4cab-8cdd-25ffb38935c6","name":"moneytalks"}},"rewardCoins":200,"rewardStatus":"ON_REWARD","costRewardCoins":98},{"autoId":311014,"postId":"811f83f5-867a-4317-aedb-ac45d1395059","tPoints":[{"postId":"811f83f5-867a-4317-aedb-ac45d1395059","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":4,"subject":"5-2lx测试提问啊哈发好？","briefBody":"暗示是否 是分数段撒啊、s的a是阿萨德沙发阿斯蒂芬萨达a暗示大声道发送f是打的费ar aw f啊","createdOn":"5月2日","lastReplyOn":"5月2日","latestReply":{"autoId":311021,"replyId":"1d9b01fa-b787-453f-9444-db8f8780b891","briefBody":"4","author":{"autoId":421713,"userId":"7515dec3-3668-4020-9777-9d5524bf89b9","name":"测试姜飞龙"}},"rewardCoins":300,"rewardStatus":"REWARD_CLOSED","costRewardCoins":300}]}</t>
+  </si>
+  <si>
+    <t>获取提问页右侧技术标签</t>
+  </si>
+  <si>
+    <t>http://test.jishulink.com:8080/jishulink_test/tpoint/qa/top_navigation</t>
+  </si>
+  <si>
+    <t>{'path': 'tpoint/qa/top_navigation', 'body': {}}</t>
+  </si>
+  <si>
+    <t>{"rc":0,"ret":{"industry":[{"autoId":1860,"tPointId":"3605432A-B559-49EA-A17A-1F42FEC798E2","name":"汽车工程","type":"18","rank":1},{"autoId":2105,"tPointId":"BDB48F0D-44D7-4DAF-8B3B-CD85D5D2A21B","name":"机械电子","type":"18","rank":2},{"autoId":3456,"tPointId":"9C15D173-227D-4805-B111-1F06988D1A7A","name":"航空航天","type":"18","rank":3},{"autoId":286,"tPointId":"842C99F5-CABD-48CD-B3A3-264D5D0FAF9C","name":"土木工程","type":"18","rank":4},{"autoId":2638,"tPointId":"1F07C1A3-2FDE-4A0C-A8FB-2498430A8115","name":"材料工程","type":"18","rank":5},{"autoId":4146,"tPointId":"C9C92CEB-31A1-4B14-B50C-10DFBD518B4F","name":"船舶海工","type":"18","rank":6},{"autoId":4661,"tPointId":"99F65655-CE5D-41C9-94AC-244200FA0E8E","name":"国防军工","type":"18","rank":7},{"autoId":4662,"tPointId":"C6C47339-62BA-49AF-9201-BDBA1A338F4F","name":"能源化工","type":"18","rank":8},{"autoId":2305,"tPointId":"149034FF-920E-4ACC-B3CD-F9F4B6F919F2","name":"生物医学","type":"18","rank":9}],"orientation":[{"autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","type":"16","rank":1},{"autoId":2201,"tPointId":"0750E607-8A84-47F1-AA0E-1C7F49EADA32","name":"显式动力学及仿真","type":"16","rank":2},{"autoId":2172,"tPointId":"F61B0CFC-706B-437C-A0C5-57548229BC19","name":"NVH","type":"16","rank":3},{"autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","type":"16","rank":4},{"autoId":2059,"tPointId":"28B9A2D1-41A7-4840-87E8-13BCB7273EF0","name":"流体力学及仿真","type":"16","rank":5},{"autoId":2458,"tPointId":"460849D5-EB4D-4D8C-8FD8-6CEB20FA3524","name":"电磁设计及仿真","type":"16","rank":6},{"autoId":2315,"tPointId":"979A17AE-E665-4571-B719-4264E36930E1","name":"声学工程及仿真","type":"16","rank":7},{"autoId":2033,"tPointId":"E07DE723-3F72-4825-82C8-A2CCF828A87B","name":"多物理场耦合仿真","type":"16","rank":9},{"autoId":901,"tPointId":"6D3C8F70-41B8-431C-A26B-33C2A441477B","name":"工艺成型及仿真","type":"16","rank":10},{"autoId":2302,"tPointId":"41E01D81-11BB-4914-B548-21F80A5D0624","name":"科学计算及数学建模","type":"16","rank":11},{"autoId":2475,"tPointId":"E8DE9908-7CC0-44A4-AAB7-03435D05F101","name":"有限元理论及编程","type":"16","rank":12},{"autoId":2190,"tPointId":"3156E9EB-AEFD-4F28-AEFC-A803E58EFEDC","name":"网格建模","type":"16","rank":13},{"autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","type":"16","rank":14}],"software":[{"autoId":2079,"tPointId":"8C274835-C596-470C-9C23-64A93736B911","name":"MSC.NASTRAN/PATRAN","type":"17","rank":5},{"autoId":2316,"tPointId":"F3D2C33A-E2E0-4070-B6B5-19AB83FE709C","name":"LMS Virtual.Lab","type":"17","rank":6},{"autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","type":"17","rank":7},{"autoId":1991,"tPointId":"1F0921CA-27FD-4AF1-8FB0-6286CC5F3A81","name":"STAR-CD/STAR CCM+","type":"17","rank":8},{"autoId":1585,"tPointId":"99397E72-D13D-4F7F-9A0C-F4EE7BD7FEA9","name":"FLOTHERM","type":"17","rank":10},{"autoId":1993,"tPointId":"B85E7116-C839-49DC-9AE4-1BA08DEE1238","name":"ANSA","type":"17","rank":11},{"autoId":1889,"tPointId":"81990A81-AEBA-47B0-90D5-A48DAA276B6B","name":"DYNAFORM","type":"17","rank":13},{"autoId":1891,"tPointId":"D388091F-2DD3-4F34-ADE8-308D8A020967","name":"DEFORM","type":"17","rank":14},{"autoId":2531,"tPointId":"BB350B32-CB3B-48F4-9E49-0AFE46F5A599","name":"SIMUFACT","type":"17","rank":15},{"autoId":1599,"tPointId":"0D1C55B1-F30D-4DE3-94A4-948E15A7395C","name":"FLOW-3D","type":"17","rank":16},{"autoId":1474,"tPointId":"75E271B5-D6F3-409A-979C-54BFC4CF8F48","name":"SYSWELD","type":"17","rank":18}]}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +386,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -134,28 +596,516 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>接口测试统计</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"接口测试统计"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>接口测试统计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>测试总况!$D$4:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>通过总数</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>失败总数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>测试总况!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="238125" y="2628900"/>
+        <a:ext cx="5114925" cy="2476500"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,124 +1392,375 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7083333333333" customWidth="1"/>
+    <col min="2" max="6" width="20.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="22.5" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="F4:F6"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="10.7083333333333" customWidth="1"/>
+    <col min="2" max="3" width="20.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.7083333333333" customWidth="1"/>
+    <col min="5" max="8" width="30.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:8">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="4" ht="30" customHeight="1" spans="1:8">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:8">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:8">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:8">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:8">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:8">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://test.jishulink.com:8080/jishulink_test/management/ad/group?labels=report" tooltip="http://test.jishulink.com:8080/jishulink_test/management/ad/group?labels=report"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://test.jishulink.com:8080/jishulink_test/user/top_activity_users"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://test.jishulink.com:8080/jishulink_test/postCommon/college/search?express=QA&amp;resolved=false"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://test.jishulink.com:8080/jishulink_test/qa/7515dec3-3668-4020-9777-9d5524bf89b9/followed_qa"/>
+    <hyperlink ref="D7" r:id="rId4" display="http://test.jishulink.com:8080/jishulink_test/qa/7515dec3-3668-4020-9777-9d5524bf89b9/followed_qa"/>
+    <hyperlink ref="D8" r:id="rId5" display="http://test.jishulink.com:8080/jishulink_test/tpoint/followed/7515dec3-3668-4020-9777-9d5524bf89b9/qa"/>
+    <hyperlink ref="D9" r:id="rId6" display="http://test.jishulink.com:8080/jishulink_test/tpoint/qa/top_navigation"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dotest/DD_API_REPORT.xlsx
+++ b/dotest/DD_API_REPORT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -62,7 +62,7 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>2017-06-01 20:33</t>
+    <t>2017-06-02 10:26</t>
   </si>
   <si>
     <t>通过率</t>
@@ -98,85 +98,22 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>广告</t>
-  </si>
-  <si>
-    <t>http://test.jishulink.com:8080/jishulink_test/management/ad/group?labels=report</t>
-  </si>
-  <si>
-    <t>{'path': 'management/ad/group?labels=report', 'body': {}}</t>
+    <t>发布悬赏问答</t>
+  </si>
+  <si>
+    <t>http://test.jishulink.com:8080/jishulink_test/post/publish</t>
+  </si>
+  <si>
+    <t>{'path': 'post/publish', 'body': {'postType': [None, 'QA'], 'bodyText': [None, 'sadsad43110'], 'subject': [None, 'dfgfdhghgjh?'], 'authorId': [None, '7515dec3-3668-4020-9777-9d5524bf89b9'], 'coins': [None, '20']}}</t>
   </si>
   <si>
     <t>{'checkdata': None, 'checktype': 'code'}</t>
   </si>
   <si>
-    <t>{"rc":0,"ret":{"report":[{"id":71,"name":"问答广告测试","label":"report","img":"http://img.jishulink.com/201703/imgs/51e3ed76dab04080904eafac1cdab15e.png","linkUrl":"http://img.jishulink.com/201703/imgs/c36f6baf05c24f3bbd9493d6afc947dc.jpg","webUrl":"http://www.jishulink.com/answer","valid":1,"ranking":1,"description":"问答广告测试"}]}}</t>
+    <t>{"rc":0,"ret":"527da427-a50b-4196-8292-5eb2f0cacf72"}</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>获取答疑明星</t>
-  </si>
-  <si>
-    <t>http://test.jishulink.com:8080/jishulink_test/user/top_activity_users</t>
-  </si>
-  <si>
-    <t>{'path': 'user/top_activity_users', 'body': {}}</t>
-  </si>
-  <si>
-    <t>{"rc":0,"ret":{"total":1643,"results":[{"autoId":402981,"userId":"168702a4-b185-44f8-b414-3dafa5329bd1","name":"ANSYS专家","avatar":"http://img.jishulink.com/201606/avatar/1b3aa1749b9b4d65afbaa8dc44122b66.jpg","replyQaCount":250,"fansCount":1468,"expertScore":0,"activityScore":0,"rankingScore":1468.0,"online":false},{"autoId":404555,"userId":"abc82ac2-65ff-4b4c-acee-f1030404fbb9","name":"告白气球","avatar":"http://img.jishulink.com/201607/avatar/6f9a1eaef5b04c7c8a9d01f9b7cd718d.jpg","replyQaCount":49,"fansCount":1338,"expertScore":0,"activityScore":0,"rankingScore":1338.0,"online":false},{"autoId":408049,"userId":"a47c8d4b-83e9-497d-af07-9cfbd87f7f92","name":"技术工","avatar":"http://img.jishulink.com/201608/avatar/81c19719eb794047b632f5dccfc5ede2.jpg","replyQaCount":858,"fansCount":1267,"expertScore":0,"activityScore":0,"rankingScore":1267.0,"online":false},{"autoId":403456,"userId":"5e4ca457-ec72-4a85-9e9c-236fd75deed3","name":"海阔天空5","avatar":"http://img.jishulink.com/201608/avatar/30ec6d8e0bd84b7ab73fb4b51f565507.jpg","replyQaCount":172,"fansCount":1253,"expertScore":0,"activityScore":0,"rankingScore":1253.0,"online":false},{"autoId":409403,"userId":"080bd053-d5fe-46d6-bf20-dd4f3af31cfa","name":"技术邻Athena","avatar":"http://img.jishulink.com/201701/avatar/6b95fee9503e456392ff2798c72e0125.png","replyQaCount":10,"fansCount":743,"expertScore":0,"activityScore":2,"rankingScore":1081.595769036268,"online":false},{"autoId":400914,"userId":"0081d25b-534a-44bc-8594-ed66802f6a7c","name":"蓝牙","avatar":"http://img.jishulink.com/201607/avatar/6c29697444ec4d9f8c51ed5cd650aceb.jpg","replyQaCount":389,"fansCount":1078,"expertScore":0,"activityScore":0,"rankingScore":1078.0,"online":false},{"autoId":1378,"userId":"158b033a-b642-46bc-9ed1-d68f4c4695d3","name":"王毅","avatar":"http://img.jishulink.com/201512/avatar/8ba1dd3cfa5d4fbea87b992132aa9385.jpg","replyQaCount":921,"fansCount":1049,"expertScore":0,"activityScore":0,"rankingScore":1049.0,"online":false},{"autoId":365294,"userId":"ad5b5359-364f-4149-81a5-f2c96ff1b13a","name":"土木工程师千总","avatar":"http://img.jishulink.com/201603/avatar/1c94b2b2962a478193ca835afc18fee1.jpg","replyQaCount":23,"fansCount":970,"expertScore":0,"activityScore":0,"rankingScore":970.0,"online":false},{"autoId":403424,"userId":"83afc6f9-16d7-4e52-873b-b484f3e0c993","name":"steve_zheng","avatar":"http://img.jishulink.com/201605/avatar/c6541890ee40461b8c55632c9443d043.jpg","replyQaCount":137,"fansCount":889,"expertScore":0,"activityScore":0,"rankingScore":889.0,"online":false},{"autoId":402845,"userId":"f0390054-9e52-48e2-8d12-a387cc840444","name":"智创仿真","avatar":"http://img.jishulink.com/201604/avatar/591e35b6a3154a68a130c8794f008e28.gif","replyQaCount":237,"fansCount":774,"expertScore":0,"activityScore":0,"rankingScore":774.0,"online":false}]}}</t>
-  </si>
-  <si>
-    <t>获取未解决提问</t>
-  </si>
-  <si>
-    <t>http://test.jishulink.com:8080/jishulink_test/postCommon/college/search?express=QA&amp;resolved=false</t>
-  </si>
-  <si>
-    <t>{'path': 'postCommon/college/search?express=QA&amp;resolved=false', 'body': {}}</t>
-  </si>
-  <si>
-    <t>{"rc":0,"ret":{"numFound":50247,"start":0,"length":10,"responses":[{"autoId":341295,"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","tPoints":[{"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeddddddddddddddsfe?","briefBody":"afdsssssssssssssssssssss","createdOn":"2 小时前","lastReplyOn":"2 小时前","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341291,"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","tPoints":[{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2201,"tPointId":"0750E607-8A84-47F1-AA0E-1C7F49EADA32","name":"显式动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":1860,"tPointId":"3605432A-B559-49EA-A17A-1F42FEC798E2","name":"汽车工程","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2079,"tPointId":"8C274835-C596-470C-9C23-64A93736B911","name":"MSC.NASTRAN/PATRAN","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":3456,"tPointId":"9C15D173-227D-4805-B111-1F06988D1A7A","name":"航空航天","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2105,"tPointId":"BDB48F0D-44D7-4DAF-8B3B-CD85D5D2A21B","name":"机械电子","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"44947f8f-e3ab-4c18-a7e3-7490c5be4787","autoId":2172,"tPointId":"F61B0CFC-706B-437C-A0C5-57548229BC19","name":"NVH","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"这个地方韩国锦湖？","briefBody":"阿萨德","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":20,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341290,"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","tPoints":[{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2201,"tPointId":"0750E607-8A84-47F1-AA0E-1C7F49EADA32","name":"显式动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":1860,"tPointId":"3605432A-B559-49EA-A17A-1F42FEC798E2","name":"汽车工程","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2079,"tPointId":"8C274835-C596-470C-9C23-64A93736B911","name":"MSC.NASTRAN/PATRAN","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":4661,"tPointId":"99F65655-CE5D-41C9-94AC-244200FA0E8E","name":"国防军工","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":3456,"tPointId":"9C15D173-227D-4805-B111-1F06988D1A7A","name":"航空航天","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2105,"tPointId":"BDB48F0D-44D7-4DAF-8B3B-CD85D5D2A21B","name":"机械电子","followed":false,"aggregationType":"CONTENT"},{"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"}],"replyCount":2,"subject":"321321321231321231321？","briefBody":"啊实打实的阿萨德爱迪生","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":341293,"replyId":"8b9ae110-f050-414d-a2e4-9552244d29fa","briefBody":"@测试姜飞龙 ","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":122,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341287,"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","tPoints":[{"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfsaesesdfe?","briefBody":"afseads","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341286,"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","tPoints":[{"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":1,"subject":"闻风丧胆大发啊等等？","briefBody":"啊啊啊","createdOn":"5月31日","lastReplyOn":"9 小时前","latestReply":{"autoId":341294,"replyId":"3e345239-aad4-4ecc-9e7c-cf1383a8c6b5","briefBody":"你猜我是谁啊。 我是来拿金币的","author":{"autoId":417984,"userId":"e17e7efa-7a38-490c-8a20-2a988f1df547","name":"啊盛"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341285,"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","tPoints":[{"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","autoId":1899,"tPointId":"0733A950-053D-4FC1-B305-EF379AA04FF6","name":"冲压工艺及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","autoId":901,"tPointId":"6D3C8F70-41B8-431C-A26B-33C2A441477B","name":"工艺成型及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"252582c0-6281-4ee7-a77f-252c0b9f674f","autoId":1889,"tPointId":"81990A81-AEBA-47B0-90D5-A48DAA276B6B","name":"DYNAFORM","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfsdaes?","briefBody":"afdas","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341284,"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","tPoints":[{"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"sfeeeeeeeeeeeeeeeeeeeeeeeeee?","briefBody":"dfs","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341283,"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","tPoints":[{"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfaaaaaaaaafse?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341282,"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","tPoints":[{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":false,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"assfseaaaaaaaaaaadfsea?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341281,"postId":"72b5f357-f365-4671-bcdb-95be76c65483","tPoints":[{"postId":"72b5f357-f365-4671-bcdb-95be76c65483","autoId":3198,"tPointId":"026115C5-2B90-4EFA-97A6-5EFF57BB1972","name":"其它","followed":false}],"replyCount":0,"subject":"11111111111111111111111111111111111111111111?","briefBody":"11111","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0}]}}</t>
-  </si>
-  <si>
-    <t>获取已解决提问</t>
-  </si>
-  <si>
-    <t>http://test.jishulink.com:8080/jishulink_test/qa/7515dec3-3668-4020-9777-9d5524bf89b9/followed_qa</t>
-  </si>
-  <si>
-    <t>{'path': 'qa/7515dec3-3668-4020-9777-9d5524bf89b9/followed_qa', 'body': {}}</t>
-  </si>
-  <si>
-    <t>{"rc":0,"ret":{"total":108,"results":[{"autoId":341290,"postId":"5c30db6f-6fe7-4ed2-b671-c2665ff80288","replyCount":2,"subject":"321321321231321231321？","briefBody":"啊实打实的阿萨德爱迪生","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":341293,"replyId":"8b9ae110-f050-414d-a2e4-9552244d29fa","briefBody":"@测试姜飞龙 ","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":122,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":338208,"postId":"0e289058-4174-4683-ae80-36b7c2b933de","replyCount":0,"subject":"编辑悬赏问答？","briefBody":"啊实打实打算","createdOn":"5月18日","lastReplyOn":"5月18日","latestReply":{"autoId":0},"rewardCoins":23,"rewardStatus":"REWARD_CLOSED","costRewardCoins":0},{"autoId":311785,"postId":"a37c307a-3d39-42ec-8a6c-85c1aa2af798","replyCount":10,"subject":"测试1494935117999?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311795,"replyId":"00dd19c7-fad2-4f48-aa12-b9b91c6bf70b","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311774,"postId":"be84f7a6-2fbb-4ce7-bd94-3247383d3bc0","replyCount":10,"subject":"测试1494935023223?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311784,"replyId":"97307bbe-0c70-45f3-b145-450f08eaa98f","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311752,"postId":"b0c78b8a-f9da-47c2-bd7a-5955c0f16b20","replyCount":10,"subject":"测试1494934361552?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311762,"replyId":"0435cf4d-1f55-4a31-910f-8d8c9df5a4c1","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311741,"postId":"5123d6ac-fc72-461d-84ca-7268a107287a","replyCount":10,"subject":"测试1494934027153?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311751,"replyId":"f611db80-11b5-4e48-a60b-5110469035c9","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311730,"postId":"481b3ad3-1f60-4aa5-902b-60bceb6eb4e9","replyCount":10,"subject":"测试1494933294427?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311740,"replyId":"aa372ded-f2da-4137-a02c-fe4aed602d0f","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311719,"postId":"505506b5-3eda-45fd-b01a-abf59440d932","replyCount":10,"subject":"测试1494933172092?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311729,"replyId":"6ce6a1dd-0040-4e9a-8098-8059fe65aeec","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311675,"postId":"1bc0c08e-cff6-4726-9c93-a6fde3544182","replyCount":10,"subject":"测试1494931604063?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311685,"replyId":"70a6c482-3d26-47f9-92db-b813412fefea","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"REWARD_CLOSED","costRewardCoins":20},{"autoId":311664,"postId":"67c8e9ef-3d1b-4f93-847c-6ecc1bc5d39d","replyCount":10,"subject":"测试1494931506519?","briefBody":"测试测试测试","createdOn":"5月16日","lastReplyOn":"5月16日","latestReply":{"autoId":311674,"replyId":"8a29ccc0-f29a-4af0-8730-232fb6096de3","briefBody":"你好","author":{"autoId":421973,"userId":"020f2b2b-2e4a-4679-8dae-61ff4a505c8a","name":"测试08"}},"rewardCoins":20,"rewardStatus":"ON_REWARD","costRewardCoins":0}]}}</t>
-  </si>
-  <si>
-    <t>获取关注的提问</t>
-  </si>
-  <si>
-    <t>获取关注的板块</t>
-  </si>
-  <si>
-    <t>http://test.jishulink.com:8080/jishulink_test/tpoint/followed/7515dec3-3668-4020-9777-9d5524bf89b9/qa</t>
-  </si>
-  <si>
-    <t>{'path': 'tpoint/followed/7515dec3-3668-4020-9777-9d5524bf89b9/qa', 'body': {}}</t>
-  </si>
-  <si>
-    <t>{"rc":0,"ret":[{"autoId":341295,"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","tPoints":[{"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"266d4348-2cc6-4a59-9eee-62cef02034ae","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeddddddddddddddsfe?","briefBody":"afdsssssssssssssssssssss","createdOn":"2 小时前","lastReplyOn":"2 小时前","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341287,"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","tPoints":[{"postId":"d04c5521-916e-4595-8af1-8f4cd700f830","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfsaesesdfe?","briefBody":"afseads","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":341286,"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","tPoints":[{"postId":"0e67ca72-e72d-486d-b4bc-982dbb04417f","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":1,"subject":"闻风丧胆大发啊等等？","briefBody":"啊啊啊","createdOn":"5月31日","lastReplyOn":"9 小时前","latestReply":{"autoId":341294,"replyId":"3e345239-aad4-4ecc-9e7c-cf1383a8c6b5","briefBody":"你猜我是谁啊。 我是来拿金币的","author":{"autoId":417984,"userId":"e17e7efa-7a38-490c-8a20-2a988f1df547","name":"啊盛"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341284,"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","tPoints":[{"postId":"cbf87a6d-326e-4a15-bfc7-ae96ab3397f9","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"sfeeeeeeeeeeeeeeeeeeeeeeeeee?","briefBody":"dfs","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341283,"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","tPoints":[{"postId":"f5e77790-4852-44ba-83e7-a840de81bbdc","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"wfeadfaaaaaaaaafse?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":0},{"autoId":341282,"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","tPoints":[{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"a6016098-c910-4778-87a7-5c2c16792bc9","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":true,"aggregationType":"CONTENT"}],"replyCount":0,"subject":"assfseaaaaaaaaaaadfsea?","briefBody":"afa","createdOn":"5月31日","lastReplyOn":"5月31日","latestReply":{"autoId":0},"rewardCoins":0,"rewardStatus":"NO_REWARD","costRewardCoins":0},{"autoId":311482,"postId":"d1a54342-f2e2-4f5b-9709-23170c6e9b8b","tPoints":[{"postId":"d1a54342-f2e2-4f5b-9709-23170c6e9b8b","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":14,"subject":"wafeaafeafe?","briefBody":"afea","createdOn":"5月15日","lastReplyOn":"5月15日","latestReply":{"autoId":311496,"replyId":"7ae120d7-87ed-4bd6-9204-601ac46ed743","briefBody":"6","author":{"autoId":1627,"userId":"f1ab56bb-b976-4cab-8cdd-25ffb38935c6","name":"moneytalks"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":22},{"autoId":311270,"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","tPoints":[{"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","followed":false,"aggregationType":"CONTENT"},{"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","followed":false,"aggregationType":"CONTENT"},{"postId":"34cd53c2-a53d-4c76-bb78-746b5b25bd51","autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","followed":true,"aggregationType":"CONTENT"}],"replyCount":59,"subject":"再来一个吧一个吧一个吧及地方接？","briefBody":"项目了没了没","createdOn":"5月8日","lastReplyOn":"5月8日","latestReply":{"autoId":311336,"replyId":"69f248b1-694c-4bbe-a2b1-7ee1bebbb60a","briefBody":"1","author":{"autoId":418872,"userId":"934519e0-d088-462b-b632-fdc59d2dc81b","name":"蒲公英aaaa"}},"rewardCoins":200,"rewardStatus":"ON_REWARD","costRewardCoins":110},{"autoId":311235,"postId":"716c10e2-1ebf-425d-b1d8-b7e70d09a579","tPoints":[{"postId":"716c10e2-1ebf-425d-b1d8-b7e70d09a579","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":34,"subject":"wfefaefwfaaaaaaaaaaafefa?","briefBody":"afesfaa","createdOn":"5月5日","lastReplyOn":"5月5日","latestReply":{"autoId":311269,"replyId":"3e886d87-0147-4d58-9047-dc14b1719bdb","briefBody":"wfe","author":{"autoId":418872,"userId":"934519e0-d088-462b-b632-fdc59d2dc81b","name":"蒲公英aaaa"}},"rewardCoins":100,"rewardStatus":"ON_REWARD","costRewardCoins":75},{"autoId":311201,"postId":"d4301154-ac64-46ac-bf04-9f6ccd83cc8a","tPoints":[{"postId":"d4301154-ac64-46ac-bf04-9f6ccd83cc8a","autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","followed":true,"aggregationType":"CONTENT"}],"replyCount":29,"subject":"fffffffffffffffffffffffff?","briefBody":"sfsea","createdOn":"5月5日","lastReplyOn":"5月5日","latestReply":{"autoId":311234,"replyId":"db5f8f0c-f684-4a37-b338-d80fa8a99421","briefBody":"dfhdrhsedrhsdrh","author":{"autoId":1627,"userId":"f1ab56bb-b976-4cab-8cdd-25ffb38935c6","name":"moneytalks"}},"rewardCoins":200,"rewardStatus":"ON_REWARD","costRewardCoins":98}]}</t>
-  </si>
-  <si>
-    <t>获取提问页右侧技术标签</t>
-  </si>
-  <si>
-    <t>http://test.jishulink.com:8080/jishulink_test/tpoint/qa/top_navigation</t>
-  </si>
-  <si>
-    <t>{'path': 'tpoint/qa/top_navigation', 'body': {}}</t>
-  </si>
-  <si>
-    <t>{"rc":0,"ret":{"industry":[{"autoId":1860,"tPointId":"3605432A-B559-49EA-A17A-1F42FEC798E2","name":"汽车工程","type":"18","rank":1},{"autoId":2105,"tPointId":"BDB48F0D-44D7-4DAF-8B3B-CD85D5D2A21B","name":"机械电子","type":"18","rank":2},{"autoId":3456,"tPointId":"9C15D173-227D-4805-B111-1F06988D1A7A","name":"航空航天","type":"18","rank":3},{"autoId":286,"tPointId":"842C99F5-CABD-48CD-B3A3-264D5D0FAF9C","name":"土木工程","type":"18","rank":4},{"autoId":2638,"tPointId":"1F07C1A3-2FDE-4A0C-A8FB-2498430A8115","name":"材料工程","type":"18","rank":5},{"autoId":4146,"tPointId":"C9C92CEB-31A1-4B14-B50C-10DFBD518B4F","name":"船舶海工","type":"18","rank":6},{"autoId":4661,"tPointId":"99F65655-CE5D-41C9-94AC-244200FA0E8E","name":"国防军工","type":"18","rank":7},{"autoId":4662,"tPointId":"C6C47339-62BA-49AF-9201-BDBA1A338F4F","name":"能源化工","type":"18","rank":8},{"autoId":2305,"tPointId":"149034FF-920E-4ACC-B3CD-F9F4B6F919F2","name":"生物医学","type":"18","rank":9}],"orientation":[{"autoId":2192,"tPointId":"57044AF7-FF2F-4D47-B5B2-DD4BF37A4FD2","name":"结构CAE","type":"16","rank":1},{"autoId":2201,"tPointId":"0750E607-8A84-47F1-AA0E-1C7F49EADA32","name":"显式动力学及仿真","type":"16","rank":2},{"autoId":2172,"tPointId":"F61B0CFC-706B-437C-A0C5-57548229BC19","name":"NVH","type":"16","rank":3},{"autoId":2284,"tPointId":"C3E1EA27-A91A-4E08-BDE8-8CFA4F5D7839","name":"多体动力学及仿真","type":"16","rank":4},{"autoId":2059,"tPointId":"28B9A2D1-41A7-4840-87E8-13BCB7273EF0","name":"流体力学及仿真","type":"16","rank":5},{"autoId":2458,"tPointId":"460849D5-EB4D-4D8C-8FD8-6CEB20FA3524","name":"电磁设计及仿真","type":"16","rank":6},{"autoId":2315,"tPointId":"979A17AE-E665-4571-B719-4264E36930E1","name":"声学工程及仿真","type":"16","rank":7},{"autoId":2033,"tPointId":"E07DE723-3F72-4825-82C8-A2CCF828A87B","name":"多物理场耦合仿真","type":"16","rank":9},{"autoId":901,"tPointId":"6D3C8F70-41B8-431C-A26B-33C2A441477B","name":"工艺成型及仿真","type":"16","rank":10},{"autoId":2302,"tPointId":"41E01D81-11BB-4914-B548-21F80A5D0624","name":"科学计算及数学建模","type":"16","rank":11},{"autoId":2475,"tPointId":"E8DE9908-7CC0-44A4-AAB7-03435D05F101","name":"有限元理论及编程","type":"16","rank":12},{"autoId":2190,"tPointId":"3156E9EB-AEFD-4F28-AEFC-A803E58EFEDC","name":"网格建模","type":"16","rank":13},{"autoId":3237,"tPointId":"5F314CA6-D6AC-4293-BBC0-4A24F13BD2CF","name":"CAD","type":"16","rank":14}],"software":[{"autoId":2079,"tPointId":"8C274835-C596-470C-9C23-64A93736B911","name":"MSC.NASTRAN/PATRAN","type":"17","rank":5},{"autoId":2316,"tPointId":"F3D2C33A-E2E0-4070-B6B5-19AB83FE709C","name":"LMS Virtual.Lab","type":"17","rank":6},{"autoId":856,"tPointId":"FCA22191-8202-40FD-AB11-2183E0FF48E7","name":"ADAMS","type":"17","rank":7},{"autoId":1991,"tPointId":"1F0921CA-27FD-4AF1-8FB0-6286CC5F3A81","name":"STAR-CD/STAR CCM+","type":"17","rank":8},{"autoId":1585,"tPointId":"99397E72-D13D-4F7F-9A0C-F4EE7BD7FEA9","name":"FLOTHERM","type":"17","rank":10},{"autoId":1993,"tPointId":"B85E7116-C839-49DC-9AE4-1BA08DEE1238","name":"ANSA","type":"17","rank":11},{"autoId":1889,"tPointId":"81990A81-AEBA-47B0-90D5-A48DAA276B6B","name":"DYNAFORM","type":"17","rank":13},{"autoId":1891,"tPointId":"D388091F-2DD3-4F34-ADE8-308D8A020967","name":"DEFORM","type":"17","rank":14},{"autoId":2531,"tPointId":"BB350B32-CB3B-48F4-9E49-0AFE46F5A599","name":"SIMUFACT","type":"17","rank":15},{"autoId":1599,"tPointId":"0D1C55B1-F30D-4DE3-94A4-948E15A7395C","name":"FLOW-3D","type":"17","rank":16},{"autoId":1474,"tPointId":"75E271B5-D6F3-409A-979C-54BFC4CF8F48","name":"SYSWELD","type":"17","rank":18}]}}</t>
   </si>
 </sst>
 </file>
@@ -334,7 +271,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -738,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -756,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -808,7 +745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +802,7 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -886,344 +823,6 @@
         <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1233,19 +832,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D15" r:id="rId13"/>
-    <hyperlink ref="D16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dotest/DD_API_REPORT.xlsx
+++ b/dotest/DD_API_REPORT.xlsx
@@ -62,7 +62,7 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>2017-06-02 10:26</t>
+    <t>2017-06-02 14:14</t>
   </si>
   <si>
     <t>通过率</t>
@@ -104,13 +104,13 @@
     <t>http://test.jishulink.com:8080/jishulink_test/post/publish</t>
   </si>
   <si>
-    <t>{'path': 'post/publish', 'body': {'postType': [None, 'QA'], 'bodyText': [None, 'sadsad43110'], 'subject': [None, 'dfgfdhghgjh?'], 'authorId': [None, '7515dec3-3668-4020-9777-9d5524bf89b9'], 'coins': [None, '20']}}</t>
+    <t>{'path': 'post/publish', 'body': {'coins': [None, '20'], 'bodyText': [None, 'sadsad43110'], 'postType': [None, 'QA'], 'authorId': [None, '7515dec3-3668-4020-9777-9d5524bf89b9'], 'subject': [None, 'dfgfdhghgjh?']}}</t>
   </si>
   <si>
     <t>{'checkdata': None, 'checktype': 'code'}</t>
   </si>
   <si>
-    <t>{"rc":0,"ret":"527da427-a50b-4196-8292-5eb2f0cacf72"}</t>
+    <t>{"rc":0,"ret":"d644d6f5-5fb5-4eed-a9a1-31517280a4f2"}</t>
   </si>
   <si>
     <t>Pass</t>
